--- a/full/sliding_window_results_window_7.xlsx
+++ b/full/sliding_window_results_window_7.xlsx
@@ -468,13 +468,13 @@
         <v>31.38</v>
       </c>
       <c r="C2" t="n">
-        <v>31.43405264555687</v>
+        <v>31.50840668385167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05405264555687594</v>
+        <v>0.1284066838516686</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002921688491697261</v>
+        <v>0.01648827645778238</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>32.28</v>
       </c>
       <c r="C3" t="n">
-        <v>33.88171909471735</v>
+        <v>33.84180102192198</v>
       </c>
       <c r="D3" t="n">
-        <v>1.601719094717353</v>
+        <v>1.56180102192198</v>
       </c>
       <c r="E3" t="n">
-        <v>2.565504058382178</v>
+        <v>2.43922243207654</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>33.1</v>
       </c>
       <c r="C4" t="n">
-        <v>34.59881702517812</v>
+        <v>34.68588656867028</v>
       </c>
       <c r="D4" t="n">
-        <v>1.49881702517812</v>
+        <v>1.585886568670283</v>
       </c>
       <c r="E4" t="n">
-        <v>2.246452474963789</v>
+        <v>2.515036208688803</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>34.4</v>
       </c>
       <c r="C5" t="n">
-        <v>36.02743530252283</v>
+        <v>36.06021851166294</v>
       </c>
       <c r="D5" t="n">
-        <v>1.627435302522834</v>
+        <v>1.66021851166294</v>
       </c>
       <c r="E5" t="n">
-        <v>2.648545663897587</v>
+        <v>2.756325506468308</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>36.3</v>
       </c>
       <c r="C6" t="n">
-        <v>38.41753136752941</v>
+        <v>38.28976843473433</v>
       </c>
       <c r="D6" t="n">
-        <v>2.117531367529409</v>
+        <v>1.98976843473433</v>
       </c>
       <c r="E6" t="n">
-        <v>4.48393909247097</v>
+        <v>3.959178423865106</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>38.5</v>
       </c>
       <c r="C7" t="n">
-        <v>39.77606294341927</v>
+        <v>39.60602903733216</v>
       </c>
       <c r="D7" t="n">
-        <v>1.276062943419269</v>
+        <v>1.106029037332156</v>
       </c>
       <c r="E7" t="n">
-        <v>1.628336635567849</v>
+        <v>1.223300231421897</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>40.1</v>
       </c>
       <c r="C8" t="n">
-        <v>41.43186567905106</v>
+        <v>41.36245957527658</v>
       </c>
       <c r="D8" t="n">
-        <v>1.331865679051056</v>
+        <v>1.26245957527658</v>
       </c>
       <c r="E8" t="n">
-        <v>1.77386618703413</v>
+        <v>1.593804179207523</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>41.5</v>
       </c>
       <c r="C9" t="n">
-        <v>43.34495546753102</v>
+        <v>43.22296769085963</v>
       </c>
       <c r="D9" t="n">
-        <v>1.844955467531022</v>
+        <v>1.722967690859626</v>
       </c>
       <c r="E9" t="n">
-        <v>3.403860677172614</v>
+        <v>2.968617663746152</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>43.7</v>
       </c>
       <c r="C10" t="n">
-        <v>46.62429814458532</v>
+        <v>46.5668379919962</v>
       </c>
       <c r="D10" t="n">
-        <v>2.924298144585322</v>
+        <v>2.866837991996192</v>
       </c>
       <c r="E10" t="n">
-        <v>8.551519638425155</v>
+        <v>8.21876007235276</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>48.1</v>
       </c>
       <c r="C11" t="n">
-        <v>49.51610485099772</v>
+        <v>49.63994442418251</v>
       </c>
       <c r="D11" t="n">
-        <v>1.416104850997719</v>
+        <v>1.539944424182508</v>
       </c>
       <c r="E11" t="n">
-        <v>2.005352949019273</v>
+        <v>2.371428829570796</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>55.46146388958425</v>
+        <v>55.39460840686682</v>
       </c>
       <c r="D12" t="n">
-        <v>2.461463889584252</v>
+        <v>2.394608406866823</v>
       </c>
       <c r="E12" t="n">
-        <v>6.058804479727233</v>
+        <v>5.734149422237263</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>56.1</v>
       </c>
       <c r="C13" t="n">
-        <v>58.4087370085376</v>
+        <v>58.41006324415184</v>
       </c>
       <c r="D13" t="n">
-        <v>2.308737008537598</v>
+        <v>2.310063244151834</v>
       </c>
       <c r="E13" t="n">
-        <v>5.330266574591137</v>
+        <v>5.336392191981298</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>60</v>
       </c>
       <c r="C14" t="n">
-        <v>62.54639913171017</v>
+        <v>62.55612964760348</v>
       </c>
       <c r="D14" t="n">
-        <v>2.546399131710174</v>
+        <v>2.556129647603477</v>
       </c>
       <c r="E14" t="n">
-        <v>6.48414853797433</v>
+        <v>6.533798775357475</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>63.9</v>
       </c>
       <c r="C15" t="n">
-        <v>66.10229715543107</v>
+        <v>66.10014278927305</v>
       </c>
       <c r="D15" t="n">
-        <v>2.202297155431076</v>
+        <v>2.200142789273052</v>
       </c>
       <c r="E15" t="n">
-        <v>4.850112760819807</v>
+        <v>4.840628293190204</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>74.20845673800601</v>
+        <v>74.23357397969079</v>
       </c>
       <c r="D16" t="n">
-        <v>3.608456738006012</v>
+        <v>3.633573979690794</v>
       </c>
       <c r="E16" t="n">
-        <v>13.02096003006099</v>
+        <v>13.202859865886</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>85.36764723363073</v>
+        <v>85.34820947420459</v>
       </c>
       <c r="D17" t="n">
-        <v>4.467647233630728</v>
+        <v>4.448209474204589</v>
       </c>
       <c r="E17" t="n">
-        <v>19.9598718041683</v>
+        <v>19.78656752640346</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>89.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>93.51090663162394</v>
+        <v>93.47984193903034</v>
       </c>
       <c r="D18" t="n">
-        <v>4.410906631623945</v>
+        <v>4.379841939030342</v>
       </c>
       <c r="E18" t="n">
-        <v>19.4560973129041</v>
+        <v>19.18301541088907</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>95</v>
       </c>
       <c r="C19" t="n">
-        <v>98.84277768929287</v>
+        <v>98.82286305249335</v>
       </c>
       <c r="D19" t="n">
-        <v>3.842777689292873</v>
+        <v>3.822863052493346</v>
       </c>
       <c r="E19" t="n">
-        <v>14.76694036932708</v>
+        <v>14.61428191811875</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>98.8</v>
       </c>
       <c r="C20" t="n">
-        <v>102.5880192113683</v>
+        <v>102.6270114730016</v>
       </c>
       <c r="D20" t="n">
-        <v>3.788019211368336</v>
+        <v>3.827011473001605</v>
       </c>
       <c r="E20" t="n">
-        <v>14.34908954569559</v>
+        <v>14.64601681448591</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>103.3</v>
       </c>
       <c r="C21" t="n">
-        <v>105.8634268147035</v>
+        <v>105.8121412474422</v>
       </c>
       <c r="D21" t="n">
-        <v>2.563426814703504</v>
+        <v>2.512141247442187</v>
       </c>
       <c r="E21" t="n">
-        <v>6.571157034340954</v>
+        <v>6.310853647100389</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>47.89297402497748</v>
+        <v>47.50890519424631</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>140.1577475150348</v>
+        <v>138.2507256895055</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>7.007887375751738</v>
+        <v>6.912536284475275</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_7.xlsx
+++ b/full/sliding_window_results_window_7.xlsx
@@ -468,13 +468,13 @@
         <v>29.75</v>
       </c>
       <c r="C2" t="n">
-        <v>29.55206922625512</v>
+        <v>28.84267039079275</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1979307737448792</v>
+        <v>-0.9073296092072454</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03917659119524657</v>
+        <v>0.8232470197441726</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.84</v>
       </c>
       <c r="C3" t="n">
-        <v>30.47912178875446</v>
+        <v>29.77707265575273</v>
       </c>
       <c r="D3" t="n">
-        <v>0.639121788754462</v>
+        <v>-0.06292734424727087</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4084766608607032</v>
+        <v>0.003959850654014534</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.81</v>
       </c>
       <c r="C4" t="n">
-        <v>30.33429754739949</v>
+        <v>30.05592842394218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5242975473994882</v>
+        <v>0.245928423942182</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2748879182091186</v>
+        <v>0.06048078970268557</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.92</v>
       </c>
       <c r="C5" t="n">
-        <v>30.15789938435594</v>
+        <v>30.41447840443012</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2378993843559414</v>
+        <v>0.4944784044301223</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05659611707693592</v>
+        <v>0.2445088924477596</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.98</v>
       </c>
       <c r="C6" t="n">
-        <v>29.56797042230956</v>
+        <v>29.92317523131234</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4120295776904364</v>
+        <v>-0.05682476868766173</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1697683728917593</v>
+        <v>0.003229054336406261</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.04</v>
       </c>
       <c r="C7" t="n">
-        <v>29.87083641622381</v>
+        <v>29.88122374981871</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1691635837761893</v>
+        <v>-0.1587762501812939</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02861631807600383</v>
+        <v>0.02520989762163284</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.21</v>
       </c>
       <c r="C8" t="n">
-        <v>29.50938272688767</v>
+        <v>29.70272247807543</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7006172731123357</v>
+        <v>-0.5072775219245678</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4908645633833651</v>
+        <v>0.2573304842499303</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.22</v>
       </c>
       <c r="C9" t="n">
-        <v>29.90408689872561</v>
+        <v>29.52518912846242</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3159131012743934</v>
+        <v>-0.6948108715375803</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09980108755680515</v>
+        <v>0.4827621472068119</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.38</v>
       </c>
       <c r="C10" t="n">
-        <v>29.81726096736508</v>
+        <v>30.16943008269027</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5627390326349229</v>
+        <v>-0.2105699173097264</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3166752188508888</v>
+        <v>0.04433969007582501</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.44</v>
       </c>
       <c r="C11" t="n">
-        <v>30.47190847918474</v>
+        <v>30.31824559916423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03190847918473594</v>
+        <v>-0.1217544008357763</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001018151043882727</v>
+        <v>0.01482413412287888</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.48</v>
       </c>
       <c r="C12" t="n">
-        <v>30.34180917565251</v>
+        <v>30.39605650836829</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1381908243474932</v>
+        <v>-0.08394349163170745</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01909670393383972</v>
+        <v>0.007046509787322538</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.69</v>
       </c>
       <c r="C13" t="n">
-        <v>30.54504415376866</v>
+        <v>31.10876771424305</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1449558462313441</v>
+        <v>0.4187677142430459</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02101219735664506</v>
+        <v>0.1753663984923454</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.75</v>
       </c>
       <c r="C14" t="n">
-        <v>30.37535326122348</v>
+        <v>30.74681721347879</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3746467387765229</v>
+        <v>-0.003182786521211511</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1403601788758842</v>
+        <v>1.013013003960568e-05</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.94</v>
       </c>
       <c r="C15" t="n">
-        <v>30.63839908210787</v>
+        <v>31.59678776628279</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3016009178921308</v>
+        <v>0.6567877662827897</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09096311367337585</v>
+        <v>0.4313701699387363</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.95</v>
       </c>
       <c r="C16" t="n">
-        <v>30.85683821619653</v>
+        <v>31.11618306159049</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0931617838034704</v>
+        <v>0.1661830615904911</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008679117961444559</v>
+        <v>0.02761680995958897</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.02</v>
       </c>
       <c r="C17" t="n">
-        <v>31.42282016144514</v>
+        <v>31.55355985879254</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4028201614451419</v>
+        <v>0.5335598587925432</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1622640824666902</v>
+        <v>0.2846861229147186</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.12</v>
       </c>
       <c r="C18" t="n">
-        <v>31.74538832666033</v>
+        <v>31.73061639384736</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6253883266603246</v>
+        <v>0.6106163938473586</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3911105591230009</v>
+        <v>0.3728523804351525</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.28</v>
       </c>
       <c r="C19" t="n">
-        <v>31.82016846817308</v>
+        <v>32.23293641710836</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5401684681730785</v>
+        <v>0.9529364171083543</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2917819740084501</v>
+        <v>0.9080878150513074</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.38</v>
       </c>
       <c r="C20" t="n">
-        <v>31.52701370395522</v>
+        <v>31.74654464723245</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1470137039552171</v>
+        <v>0.3665446472324483</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02161302915063221</v>
+        <v>0.13435497841476</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.58</v>
       </c>
       <c r="C21" t="n">
-        <v>31.88891343994345</v>
+        <v>32.13029497748891</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3089134399434563</v>
+        <v>0.5502949774889103</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09542751337769939</v>
+        <v>0.3028245622495203</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.65</v>
       </c>
       <c r="C22" t="n">
-        <v>31.84383637016819</v>
+        <v>31.68627752760299</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1938363701681887</v>
+        <v>0.03627752760298719</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03757253839997906</v>
+        <v>0.001316059008985498</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.88</v>
       </c>
       <c r="C23" t="n">
-        <v>32.53161955139993</v>
+        <v>32.65755974196735</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6516195513999286</v>
+        <v>0.7775597419673552</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4246080397666441</v>
+        <v>0.6045991523283401</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.44790752664425</v>
+        <v>32.70016874744525</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1679075266442496</v>
+        <v>0.4201687474452456</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02819293750378938</v>
+        <v>0.1765417763297066</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.45</v>
       </c>
       <c r="C25" t="n">
-        <v>32.56493877496955</v>
+        <v>32.27986009465576</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1149387749695521</v>
+        <v>-0.1701399053442429</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01321092199150133</v>
+        <v>0.02894758739054795</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.85</v>
       </c>
       <c r="C26" t="n">
-        <v>32.83110401486227</v>
+        <v>33.72895952859652</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01889598513773194</v>
+        <v>0.8789595285965177</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003570582543253864</v>
+        <v>0.7725698529106126</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.9</v>
       </c>
       <c r="C27" t="n">
-        <v>32.98472376508364</v>
+        <v>32.61288667413642</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08472376508364476</v>
+        <v>-0.2871133258635794</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007178116369948624</v>
+        <v>0.08243406188844593</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.1</v>
       </c>
       <c r="C28" t="n">
-        <v>33.06027237251001</v>
+        <v>32.9278496063616</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03972762748999514</v>
+        <v>-0.1721503936383968</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001578284385983818</v>
+        <v>0.02963575802985497</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.4</v>
       </c>
       <c r="C29" t="n">
-        <v>33.94366062112429</v>
+        <v>33.47847737626033</v>
       </c>
       <c r="D29" t="n">
-        <v>0.543660621124296</v>
+        <v>0.0784773762603308</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2955668709612553</v>
+        <v>0.006158698584705532</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.7</v>
       </c>
       <c r="C30" t="n">
-        <v>33.88600048284398</v>
+        <v>33.80295516145731</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1860004828439799</v>
+        <v>0.1029551614573023</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03459617961819365</v>
+        <v>0.01059976527069919</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.1</v>
       </c>
       <c r="C31" t="n">
-        <v>34.03856700696136</v>
+        <v>34.46276511415459</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.06143299303864325</v>
+        <v>0.3627651141545911</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00377401263368599</v>
+        <v>0.1315985280475935</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.4</v>
       </c>
       <c r="C32" t="n">
-        <v>33.89030278293831</v>
+        <v>34.45397758051843</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5096972170616922</v>
+        <v>0.05397758051842771</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2597912530804338</v>
+        <v>0.002913579198623347</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.9</v>
       </c>
       <c r="C33" t="n">
-        <v>34.49641451513467</v>
+        <v>35.06007278628962</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.4035854848653315</v>
+        <v>0.160072786289625</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1628812435939847</v>
+        <v>0.02562329691052394</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.3</v>
       </c>
       <c r="C34" t="n">
-        <v>35.58994005158812</v>
+        <v>35.09758621209212</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2899400515881254</v>
+        <v>-0.2024137879078722</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08406523351492483</v>
+        <v>0.04097134153521308</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.7</v>
       </c>
       <c r="C35" t="n">
-        <v>36.00345176899923</v>
+        <v>35.43159945849413</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3034517689992313</v>
+        <v>-0.2684005415058692</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09208297610876284</v>
+        <v>0.07203885068064383</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.3</v>
       </c>
       <c r="C36" t="n">
-        <v>36.22850760022378</v>
+        <v>35.69388388264429</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.07149239977621846</v>
+        <v>-0.6061161173557039</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005111163225762641</v>
+        <v>0.3673767477183534</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.8</v>
       </c>
       <c r="C37" t="n">
-        <v>37.13218751709188</v>
+        <v>36.06136272225614</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3321875170918815</v>
+        <v>-0.7386372777438552</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1103485465116691</v>
+        <v>0.5455850280728531</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.3</v>
       </c>
       <c r="C38" t="n">
-        <v>37.1886072001539</v>
+        <v>36.72716087155838</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1113927998460937</v>
+        <v>-0.5728391284416219</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0124083558575519</v>
+        <v>0.3281446670737569</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.9</v>
       </c>
       <c r="C39" t="n">
-        <v>38.07902063115112</v>
+        <v>38.14990031659628</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1790206311511255</v>
+        <v>0.2499003165962819</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03204838637774734</v>
+        <v>0.06245016823492191</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.5</v>
       </c>
       <c r="C40" t="n">
-        <v>38.68052565090631</v>
+        <v>38.48782065156681</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1805256509063113</v>
+        <v>-0.01217934843319313</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03258951063514739</v>
+        <v>0.0001483365282571239</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.9</v>
       </c>
       <c r="C41" t="n">
-        <v>39.05890000262099</v>
+        <v>38.72278329549006</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1589000026209959</v>
+        <v>-0.177216704509938</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02524921083295251</v>
+        <v>0.03140576035736267</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.4</v>
       </c>
       <c r="C42" t="n">
-        <v>39.46814730780111</v>
+        <v>39.0000256948165</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06814730780111233</v>
+        <v>-0.3999743051834983</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004644055560539546</v>
+        <v>0.1599794448070222</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.9</v>
       </c>
       <c r="C43" t="n">
-        <v>39.71557728641135</v>
+        <v>40.01617802748755</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1844227135886527</v>
+        <v>0.1161780274875497</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03401173728740223</v>
+        <v>0.01349733407089785</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.1</v>
       </c>
       <c r="C44" t="n">
-        <v>39.75171229721425</v>
+        <v>40.35817340030852</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.348287702785754</v>
+        <v>0.2581734003085217</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1213043239117778</v>
+        <v>0.06665350462686416</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.6</v>
       </c>
       <c r="C45" t="n">
-        <v>39.88865494367155</v>
+        <v>40.4896900035861</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.7113450563284474</v>
+        <v>-0.1103099964139034</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5060117891629219</v>
+        <v>0.01216829530883538</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.9</v>
       </c>
       <c r="C46" t="n">
-        <v>40.17636941192848</v>
+        <v>40.96970212329555</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.7236305880715221</v>
+        <v>0.06970212329555636</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5236412279927369</v>
+        <v>0.004858385991908941</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.2</v>
       </c>
       <c r="C47" t="n">
-        <v>41.00493381187577</v>
+        <v>41.99817348785336</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1950661881242368</v>
+        <v>0.7981734878533615</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03805081774932015</v>
+        <v>0.6370809167120002</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.5</v>
       </c>
       <c r="C48" t="n">
-        <v>41.2232895644484</v>
+        <v>41.3252132420874</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2767104355515997</v>
+        <v>-0.1747867579125995</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07656866514315601</v>
+        <v>0.03055041074159765</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.8</v>
       </c>
       <c r="C49" t="n">
-        <v>41.83429001822083</v>
+        <v>41.1035967236443</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03429001822083677</v>
+        <v>-0.6964032763556958</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001175805349585318</v>
+        <v>0.4849775233189476</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.2</v>
       </c>
       <c r="C50" t="n">
-        <v>42.2899883177875</v>
+        <v>41.79583149888605</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08998831778749405</v>
+        <v>-0.4041685011139577</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008097897338223019</v>
+        <v>0.1633521772927033</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.42184316379691</v>
+        <v>42.29066429366999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7218431637969118</v>
+        <v>-0.4093357063300118</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5210575531203353</v>
+        <v>0.1675557204766897</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.6918761771196742</v>
+        <v>1.149856548653919</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>6.625964181312612</v>
+        <v>9.665840566983077</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1325192836262522</v>
+        <v>0.1933168113396615</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_7.xlsx
+++ b/full/sliding_window_results_window_7.xlsx
@@ -468,13 +468,13 @@
         <v>29.75</v>
       </c>
       <c r="C2" t="n">
-        <v>28.84267039079275</v>
+        <v>28.83727784591755</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9073296092072454</v>
+        <v>-0.9127221540824522</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8232470197441726</v>
+        <v>0.8330617305529116</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.84</v>
       </c>
       <c r="C3" t="n">
-        <v>29.77707265575273</v>
+        <v>29.87652654728475</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.06292734424727087</v>
+        <v>0.03652654728475468</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003959850654014534</v>
+        <v>0.00133418865654542</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.81</v>
       </c>
       <c r="C4" t="n">
-        <v>30.05592842394218</v>
+        <v>29.85731412127634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.245928423942182</v>
+        <v>0.04731412127634016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06048078970268557</v>
+        <v>0.002238626072152224</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.92</v>
       </c>
       <c r="C5" t="n">
-        <v>30.41447840443012</v>
+        <v>31.08721842473496</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4944784044301223</v>
+        <v>1.167218424734955</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2445088924477596</v>
+        <v>1.362398851040749</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.98</v>
       </c>
       <c r="C6" t="n">
-        <v>29.92317523131234</v>
+        <v>30.13520225514314</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05682476868766173</v>
+        <v>0.1552022551431413</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003229054336406261</v>
+        <v>0.02408774000151674</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.04</v>
       </c>
       <c r="C7" t="n">
-        <v>29.88122374981871</v>
+        <v>29.7590688853249</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1587762501812939</v>
+        <v>-0.2809311146750986</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02520989762163284</v>
+        <v>0.07892229119259338</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.21</v>
       </c>
       <c r="C8" t="n">
-        <v>29.70272247807543</v>
+        <v>29.38622612122808</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5072775219245678</v>
+        <v>-0.8237738787719167</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2573304842499303</v>
+        <v>0.6786034033469285</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.22</v>
       </c>
       <c r="C9" t="n">
-        <v>29.52518912846242</v>
+        <v>29.45549348717499</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6948108715375803</v>
+        <v>-0.7645065128250081</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4827621472068119</v>
+        <v>0.5844702081518544</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.38</v>
       </c>
       <c r="C10" t="n">
-        <v>30.16943008269027</v>
+        <v>29.9804650222404</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2105699173097264</v>
+        <v>-0.399534977759604</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04433969007582501</v>
+        <v>0.1596281984533673</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.44</v>
       </c>
       <c r="C11" t="n">
-        <v>30.31824559916423</v>
+        <v>30.17159384120344</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1217544008357763</v>
+        <v>-0.2684061587965623</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01482413412287888</v>
+        <v>0.0720418660799254</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.48</v>
       </c>
       <c r="C12" t="n">
-        <v>30.39605650836829</v>
+        <v>30.35166571765397</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.08394349163170745</v>
+        <v>-0.1283342823460352</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007046509787322538</v>
+        <v>0.01646968802527187</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.69</v>
       </c>
       <c r="C13" t="n">
-        <v>31.10876771424305</v>
+        <v>30.80206428640528</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4187677142430459</v>
+        <v>0.1120642864052819</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1753663984923454</v>
+        <v>0.01255840428752504</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.75</v>
       </c>
       <c r="C14" t="n">
-        <v>30.74681721347879</v>
+        <v>30.79613200211664</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.003182786521211511</v>
+        <v>0.04613200211664292</v>
       </c>
       <c r="E14" t="n">
-        <v>1.013013003960568e-05</v>
+        <v>0.002128161619289947</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.94</v>
       </c>
       <c r="C15" t="n">
-        <v>31.59678776628279</v>
+        <v>31.39821336736987</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6567877662827897</v>
+        <v>0.4582133673698685</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4313701699387363</v>
+        <v>0.2099594900364341</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.95</v>
       </c>
       <c r="C16" t="n">
-        <v>31.11618306159049</v>
+        <v>30.86789833179397</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1661830615904911</v>
+        <v>-0.08210166820602538</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02761680995958897</v>
+        <v>0.006740683922212279</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.02</v>
       </c>
       <c r="C17" t="n">
-        <v>31.55355985879254</v>
+        <v>31.43869558039415</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5335598587925432</v>
+        <v>0.4186955803941537</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2846861229147186</v>
+        <v>0.1753059890415972</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.12</v>
       </c>
       <c r="C18" t="n">
-        <v>31.73061639384736</v>
+        <v>31.48954406025256</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6106163938473586</v>
+        <v>0.3695440602525544</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3728523804351525</v>
+        <v>0.1365628124679436</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.28</v>
       </c>
       <c r="C19" t="n">
-        <v>32.23293641710836</v>
+        <v>31.83265086957331</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9529364171083543</v>
+        <v>0.5526508695733128</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9080878150513074</v>
+        <v>0.3054229836401388</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.38</v>
       </c>
       <c r="C20" t="n">
-        <v>31.74654464723245</v>
+        <v>31.92479505343142</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3665446472324483</v>
+        <v>0.5447950534314181</v>
       </c>
       <c r="E20" t="n">
-        <v>0.13435497841476</v>
+        <v>0.2968016502433417</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.58</v>
       </c>
       <c r="C21" t="n">
-        <v>32.13029497748891</v>
+        <v>32.30210141814484</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5502949774889103</v>
+        <v>0.7221014181448382</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3028245622495203</v>
+        <v>0.5214304580867865</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.65</v>
       </c>
       <c r="C22" t="n">
-        <v>31.68627752760299</v>
+        <v>31.49597538171488</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03627752760298719</v>
+        <v>-0.1540246182851206</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001316059008985498</v>
+        <v>0.02372358303787711</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.88</v>
       </c>
       <c r="C23" t="n">
-        <v>32.65755974196735</v>
+        <v>32.28200260583431</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7775597419673552</v>
+        <v>0.4020026058343085</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6045991523283401</v>
+        <v>0.1616060950975744</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.70016874744525</v>
+        <v>32.21773322941983</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4201687474452456</v>
+        <v>-0.06226677058017316</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1765417763297066</v>
+        <v>0.003877150718483918</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.45</v>
       </c>
       <c r="C25" t="n">
-        <v>32.27986009465576</v>
+        <v>32.18185654158387</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1701399053442429</v>
+        <v>-0.2681434584161337</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02894758739054795</v>
+        <v>0.07190091429136485</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.85</v>
       </c>
       <c r="C26" t="n">
-        <v>33.72895952859652</v>
+        <v>33.36008310968018</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8789595285965177</v>
+        <v>0.5100831096801812</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7725698529106126</v>
+        <v>0.2601847787810038</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.9</v>
       </c>
       <c r="C27" t="n">
-        <v>32.61288667413642</v>
+        <v>32.73865018759535</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2871133258635794</v>
+        <v>-0.1613498124046444</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08243406188844593</v>
+        <v>0.02603376196301394</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.1</v>
       </c>
       <c r="C28" t="n">
-        <v>32.9278496063616</v>
+        <v>33.14019665397795</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1721503936383968</v>
+        <v>0.0401966539779437</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02963575802985497</v>
+        <v>0.001615770991022537</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.4</v>
       </c>
       <c r="C29" t="n">
-        <v>33.47847737626033</v>
+        <v>33.43697310398122</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0784773762603308</v>
+        <v>0.03697310398122511</v>
       </c>
       <c r="E29" t="n">
-        <v>0.006158698584705532</v>
+        <v>0.001367010418006484</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.7</v>
       </c>
       <c r="C30" t="n">
-        <v>33.80295516145731</v>
+        <v>33.79072290618338</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1029551614573023</v>
+        <v>0.0907229061833732</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01059976527069919</v>
+        <v>0.008230645706357134</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.1</v>
       </c>
       <c r="C31" t="n">
-        <v>34.46276511415459</v>
+        <v>34.34068616496454</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3627651141545911</v>
+        <v>0.2406861649645364</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1315985280475935</v>
+        <v>0.05792983000533605</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.4</v>
       </c>
       <c r="C32" t="n">
-        <v>34.45397758051843</v>
+        <v>34.52742355196926</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05397758051842771</v>
+        <v>0.1274235519692581</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002913579198623347</v>
+        <v>0.01623676159646223</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.9</v>
       </c>
       <c r="C33" t="n">
-        <v>35.06007278628962</v>
+        <v>34.91621891530272</v>
       </c>
       <c r="D33" t="n">
-        <v>0.160072786289625</v>
+        <v>0.01621891530272279</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02562329691052394</v>
+        <v>0.0002630532135968956</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.3</v>
       </c>
       <c r="C34" t="n">
-        <v>35.09758621209212</v>
+        <v>34.97818455114259</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2024137879078722</v>
+        <v>-0.3218154488574072</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04097134153521308</v>
+        <v>0.1035651831232945</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.7</v>
       </c>
       <c r="C35" t="n">
-        <v>35.43159945849413</v>
+        <v>35.23502866959227</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2684005415058692</v>
+        <v>-0.4649713304077281</v>
       </c>
       <c r="E35" t="n">
-        <v>0.07203885068064383</v>
+        <v>0.2161983381011326</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.69388388264429</v>
+        <v>35.9775311690721</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.6061161173557039</v>
+        <v>-0.322468830927896</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3673767477183534</v>
+        <v>0.103986146920004</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.8</v>
       </c>
       <c r="C37" t="n">
-        <v>36.06136272225614</v>
+        <v>35.73549071337306</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.7386372777438552</v>
+        <v>-1.064509286626937</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5455850280728531</v>
+        <v>1.133180021314989</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.3</v>
       </c>
       <c r="C38" t="n">
-        <v>36.72716087155838</v>
+        <v>36.40529420250829</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.5728391284416219</v>
+        <v>-0.894705797491703</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3281446670737569</v>
+        <v>0.8004984640652643</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.9</v>
       </c>
       <c r="C39" t="n">
-        <v>38.14990031659628</v>
+        <v>37.68315911529016</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2499003165962819</v>
+        <v>-0.2168408847098391</v>
       </c>
       <c r="E39" t="n">
-        <v>0.06245016823492191</v>
+        <v>0.04701996928174573</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.5</v>
       </c>
       <c r="C40" t="n">
-        <v>38.48782065156681</v>
+        <v>38.41247709140922</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.01217934843319313</v>
+        <v>-0.08752290859078471</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0001483365282571239</v>
+        <v>0.007660259528190856</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.9</v>
       </c>
       <c r="C41" t="n">
-        <v>38.72278329549006</v>
+        <v>38.41815423969879</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.177216704509938</v>
+        <v>-0.4818457603012121</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03140576035736267</v>
+        <v>0.2321753367202531</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.4</v>
       </c>
       <c r="C42" t="n">
-        <v>39.0000256948165</v>
+        <v>38.76061604456291</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3999743051834983</v>
+        <v>-0.6393839554370899</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1599794448070222</v>
+        <v>0.4088118424703786</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.9</v>
       </c>
       <c r="C43" t="n">
-        <v>40.01617802748755</v>
+        <v>39.20752762966302</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1161780274875497</v>
+        <v>-0.6924723703369793</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01349733407089785</v>
+        <v>0.4795179836801146</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.1</v>
       </c>
       <c r="C44" t="n">
-        <v>40.35817340030852</v>
+        <v>39.14024537989686</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2581734003085217</v>
+        <v>-0.9597546201031406</v>
       </c>
       <c r="E44" t="n">
-        <v>0.06665350462686416</v>
+        <v>0.9211289308093238</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.6</v>
       </c>
       <c r="C45" t="n">
-        <v>40.4896900035861</v>
+        <v>40.53858353044853</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1103099964139034</v>
+        <v>-0.06141646955147451</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01216829530883538</v>
+        <v>0.003771982732167195</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.9</v>
       </c>
       <c r="C46" t="n">
-        <v>40.96970212329555</v>
+        <v>40.1831897246824</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06970212329555636</v>
+        <v>-0.7168102753175987</v>
       </c>
       <c r="E46" t="n">
-        <v>0.004858385991908941</v>
+        <v>0.5138169708008916</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.2</v>
       </c>
       <c r="C47" t="n">
-        <v>41.99817348785336</v>
+        <v>41.55048267040449</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7981734878533615</v>
+        <v>0.3504826704044888</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6370809167120002</v>
+        <v>0.1228381022538615</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.5</v>
       </c>
       <c r="C48" t="n">
-        <v>41.3252132420874</v>
+        <v>41.09806104812555</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1747867579125995</v>
+        <v>-0.4019389518744489</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03055041074159765</v>
+        <v>0.1615549210339306</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.8</v>
       </c>
       <c r="C49" t="n">
-        <v>41.1035967236443</v>
+        <v>40.86879398232502</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.6964032763556958</v>
+        <v>-0.9312060176749739</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4849775233189476</v>
+        <v>0.8671446473540838</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.2</v>
       </c>
       <c r="C50" t="n">
-        <v>41.79583149888605</v>
+        <v>42.63750495508896</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.4041685011139577</v>
+        <v>0.4375049550889543</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1633521772927033</v>
+        <v>0.1914105857273879</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.7</v>
       </c>
       <c r="C51" t="n">
-        <v>42.29066429366999</v>
+        <v>43.33409875271914</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.4093357063300118</v>
+        <v>0.6340987527191402</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1675557204766897</v>
+        <v>0.4020812281999693</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.149856548653919</v>
+        <v>-5.046906939124593</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>9.665840566983077</v>
+        <v>12.82949769485617</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1933168113396615</v>
+        <v>0.2565899538971234</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_7.xlsx
+++ b/full/sliding_window_results_window_7.xlsx
@@ -468,13 +468,13 @@
         <v>29.75</v>
       </c>
       <c r="C2" t="n">
-        <v>28.83727784591755</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9127221540824522</v>
+        <v>-29.75</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8330617305529116</v>
+        <v>885.0625</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.84</v>
       </c>
       <c r="C3" t="n">
-        <v>29.87652654728475</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03652654728475468</v>
+        <v>-29.84</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00133418865654542</v>
+        <v>890.4256</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.81</v>
       </c>
       <c r="C4" t="n">
-        <v>29.85731412127634</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04731412127634016</v>
+        <v>-29.81</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002238626072152224</v>
+        <v>888.6360999999999</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.92</v>
       </c>
       <c r="C5" t="n">
-        <v>31.08721842473496</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.167218424734955</v>
+        <v>-29.92</v>
       </c>
       <c r="E5" t="n">
-        <v>1.362398851040749</v>
+        <v>895.2064000000001</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.98</v>
       </c>
       <c r="C6" t="n">
-        <v>30.13520225514314</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1552022551431413</v>
+        <v>-29.98</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02408774000151674</v>
+        <v>898.8004000000001</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.04</v>
       </c>
       <c r="C7" t="n">
-        <v>29.7590688853249</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2809311146750986</v>
+        <v>-30.04</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07892229119259338</v>
+        <v>902.4015999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.21</v>
       </c>
       <c r="C8" t="n">
-        <v>29.38622612122808</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.8237738787719167</v>
+        <v>-30.21</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6786034033469285</v>
+        <v>912.6441000000001</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.22</v>
       </c>
       <c r="C9" t="n">
-        <v>29.45549348717499</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7645065128250081</v>
+        <v>-30.22</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5844702081518544</v>
+        <v>913.2483999999999</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.38</v>
       </c>
       <c r="C10" t="n">
-        <v>29.9804650222404</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.399534977759604</v>
+        <v>-30.38</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1596281984533673</v>
+        <v>922.9444</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.44</v>
       </c>
       <c r="C11" t="n">
-        <v>30.17159384120344</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2684061587965623</v>
+        <v>-30.44</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0720418660799254</v>
+        <v>926.5936</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.48</v>
       </c>
       <c r="C12" t="n">
-        <v>30.35166571765397</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1283342823460352</v>
+        <v>-30.48</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01646968802527187</v>
+        <v>929.0304</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.69</v>
       </c>
       <c r="C13" t="n">
-        <v>30.80206428640528</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1120642864052819</v>
+        <v>-30.69</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01255840428752504</v>
+        <v>941.8761000000001</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.75</v>
       </c>
       <c r="C14" t="n">
-        <v>30.79613200211664</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.04613200211664292</v>
+        <v>-30.75</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002128161619289947</v>
+        <v>945.5625</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.94</v>
       </c>
       <c r="C15" t="n">
-        <v>31.39821336736987</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4582133673698685</v>
+        <v>-30.94</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2099594900364341</v>
+        <v>957.2836000000001</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.95</v>
       </c>
       <c r="C16" t="n">
-        <v>30.86789833179397</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.08210166820602538</v>
+        <v>-30.95</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006740683922212279</v>
+        <v>957.9024999999999</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.02</v>
       </c>
       <c r="C17" t="n">
-        <v>31.43869558039415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4186955803941537</v>
+        <v>-31.02</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1753059890415972</v>
+        <v>962.2404</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.12</v>
       </c>
       <c r="C18" t="n">
-        <v>31.48954406025256</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3695440602525544</v>
+        <v>-31.12</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1365628124679436</v>
+        <v>968.4544000000001</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.28</v>
       </c>
       <c r="C19" t="n">
-        <v>31.83265086957331</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5526508695733128</v>
+        <v>-31.28</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3054229836401388</v>
+        <v>978.4384000000001</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.38</v>
       </c>
       <c r="C20" t="n">
-        <v>31.92479505343142</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5447950534314181</v>
+        <v>-31.38</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2968016502433417</v>
+        <v>984.7044</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.58</v>
       </c>
       <c r="C21" t="n">
-        <v>32.30210141814484</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7221014181448382</v>
+        <v>-31.58</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5214304580867865</v>
+        <v>997.2963999999999</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.65</v>
       </c>
       <c r="C22" t="n">
-        <v>31.49597538171488</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1540246182851206</v>
+        <v>-31.65</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02372358303787711</v>
+        <v>1001.7225</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.88</v>
       </c>
       <c r="C23" t="n">
-        <v>32.28200260583431</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4020026058343085</v>
+        <v>-31.88</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1616060950975744</v>
+        <v>1016.3344</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.21773322941983</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.06226677058017316</v>
+        <v>-32.28</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003877150718483918</v>
+        <v>1041.9984</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.45</v>
       </c>
       <c r="C25" t="n">
-        <v>32.18185654158387</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2681434584161337</v>
+        <v>-32.45</v>
       </c>
       <c r="E25" t="n">
-        <v>0.07190091429136485</v>
+        <v>1053.0025</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.85</v>
       </c>
       <c r="C26" t="n">
-        <v>33.36008310968018</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5100831096801812</v>
+        <v>-32.85</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2601847787810038</v>
+        <v>1079.1225</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.9</v>
       </c>
       <c r="C27" t="n">
-        <v>32.73865018759535</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1613498124046444</v>
+        <v>-32.9</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02603376196301394</v>
+        <v>1082.41</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.1</v>
       </c>
       <c r="C28" t="n">
-        <v>33.14019665397795</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0401966539779437</v>
+        <v>-33.1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001615770991022537</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.4</v>
       </c>
       <c r="C29" t="n">
-        <v>33.43697310398122</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03697310398122511</v>
+        <v>-33.4</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001367010418006484</v>
+        <v>1115.56</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.7</v>
       </c>
       <c r="C30" t="n">
-        <v>33.79072290618338</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0907229061833732</v>
+        <v>-33.7</v>
       </c>
       <c r="E30" t="n">
-        <v>0.008230645706357134</v>
+        <v>1135.69</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.1</v>
       </c>
       <c r="C31" t="n">
-        <v>34.34068616496454</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2406861649645364</v>
+        <v>-34.1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05792983000533605</v>
+        <v>1162.81</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.4</v>
       </c>
       <c r="C32" t="n">
-        <v>34.52742355196926</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1274235519692581</v>
+        <v>-34.4</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01623676159646223</v>
+        <v>1183.36</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.9</v>
       </c>
       <c r="C33" t="n">
-        <v>34.91621891530272</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01621891530272279</v>
+        <v>-34.9</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0002630532135968956</v>
+        <v>1218.01</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.3</v>
       </c>
       <c r="C34" t="n">
-        <v>34.97818455114259</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3218154488574072</v>
+        <v>-35.3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1035651831232945</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.7</v>
       </c>
       <c r="C35" t="n">
-        <v>35.23502866959227</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.4649713304077281</v>
+        <v>-35.7</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2161983381011326</v>
+        <v>1274.49</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.9775311690721</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.322468830927896</v>
+        <v>-36.3</v>
       </c>
       <c r="E36" t="n">
-        <v>0.103986146920004</v>
+        <v>1317.69</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.8</v>
       </c>
       <c r="C37" t="n">
-        <v>35.73549071337306</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.064509286626937</v>
+        <v>-36.8</v>
       </c>
       <c r="E37" t="n">
-        <v>1.133180021314989</v>
+        <v>1354.24</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.3</v>
       </c>
       <c r="C38" t="n">
-        <v>36.40529420250829</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.894705797491703</v>
+        <v>-37.3</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8004984640652643</v>
+        <v>1391.29</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.9</v>
       </c>
       <c r="C39" t="n">
-        <v>37.68315911529016</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2168408847098391</v>
+        <v>-37.9</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04701996928174573</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.5</v>
       </c>
       <c r="C40" t="n">
-        <v>38.41247709140922</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.08752290859078471</v>
+        <v>-38.5</v>
       </c>
       <c r="E40" t="n">
-        <v>0.007660259528190856</v>
+        <v>1482.25</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.9</v>
       </c>
       <c r="C41" t="n">
-        <v>38.41815423969879</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.4818457603012121</v>
+        <v>-38.9</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2321753367202531</v>
+        <v>1513.21</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.4</v>
       </c>
       <c r="C42" t="n">
-        <v>38.76061604456291</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.6393839554370899</v>
+        <v>-39.4</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4088118424703786</v>
+        <v>1552.36</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.9</v>
       </c>
       <c r="C43" t="n">
-        <v>39.20752762966302</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.6924723703369793</v>
+        <v>-39.9</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4795179836801146</v>
+        <v>1592.01</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.1</v>
       </c>
       <c r="C44" t="n">
-        <v>39.14024537989686</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.9597546201031406</v>
+        <v>-40.1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9211289308093238</v>
+        <v>1608.01</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.6</v>
       </c>
       <c r="C45" t="n">
-        <v>40.53858353044853</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.06141646955147451</v>
+        <v>-40.6</v>
       </c>
       <c r="E45" t="n">
-        <v>0.003771982732167195</v>
+        <v>1648.36</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.9</v>
       </c>
       <c r="C46" t="n">
-        <v>40.1831897246824</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.7168102753175987</v>
+        <v>-40.9</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5138169708008916</v>
+        <v>1672.81</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.2</v>
       </c>
       <c r="C47" t="n">
-        <v>41.55048267040449</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3504826704044888</v>
+        <v>-41.2</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1228381022538615</v>
+        <v>1697.44</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.5</v>
       </c>
       <c r="C48" t="n">
-        <v>41.09806104812555</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.4019389518744489</v>
+        <v>-41.5</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1615549210339306</v>
+        <v>1722.25</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.8</v>
       </c>
       <c r="C49" t="n">
-        <v>40.86879398232502</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.9312060176749739</v>
+        <v>-41.8</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8671446473540838</v>
+        <v>1747.24</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.2</v>
       </c>
       <c r="C50" t="n">
-        <v>42.63750495508896</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4375049550889543</v>
+        <v>-42.2</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1914105857273879</v>
+        <v>1780.84</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.33409875271914</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6340987527191402</v>
+        <v>-42.7</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4020812281999693</v>
+        <v>1823.29</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-5.046906939124593</v>
+        <v>-1715.39</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>12.82949769485617</v>
+        <v>59704.6625</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2565899538971234</v>
+        <v>1194.09325</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_7.xlsx
+++ b/full/sliding_window_results_window_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,234 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.232268095016479</v>
+        <v>29.75</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.228702783584595</v>
+        <v>29.76882743835449</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003565311431884766</v>
+        <v>0.01882743835449219</v>
       </c>
       <c r="E2" t="n">
-        <v>1.271144537895452e-05</v>
+        <v>0.0003544724349922035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.230795860290527</v>
+        <v>29.84</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.230668544769287</v>
+        <v>29.83560752868652</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001273155212402344</v>
+        <v>-0.004392471313479973</v>
       </c>
       <c r="E3" t="n">
-        <v>1.620924194867257e-08</v>
+        <v>1.929380423974448e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.231286525726318</v>
+        <v>29.81</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.230278968811035</v>
+        <v>29.74980735778809</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001007556915283203</v>
+        <v>-0.06019264221191634</v>
       </c>
       <c r="E4" t="n">
-        <v>1.015170937535004e-06</v>
+        <v>0.003623154176451772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.229487061500549</v>
+        <v>29.92</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.217766523361206</v>
+        <v>29.96960258483887</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01172053813934326</v>
+        <v>0.04960258483886548</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001373710110783577</v>
+        <v>0.002460416422696848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.228505492210388</v>
+        <v>29.98</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.22255539894104</v>
+        <v>29.99859428405762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005950093269348145</v>
+        <v>0.01859428405761321</v>
       </c>
       <c r="E6" t="n">
-        <v>3.540360921761021e-05</v>
+        <v>0.0003457473996152087</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.227523922920227</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.227407932281494</v>
+        <v>30.01749229431152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001159906387329102</v>
+        <v>-0.0225077056884686</v>
       </c>
       <c r="E7" t="n">
-        <v>1.345382827366848e-08</v>
+        <v>0.0005065968153587219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.224742889404297</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.223847150802612</v>
+        <v>30.0926342010498</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0008957386016845703</v>
+        <v>-0.1173657989502033</v>
       </c>
       <c r="E8" t="n">
-        <v>8.023476425478293e-07</v>
+        <v>0.01377473076321954</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.224579334259033</v>
+        <v>30.22</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.235911846160889</v>
+        <v>30.12292289733887</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01133251190185547</v>
+        <v>-0.09707710266113168</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001284258323721588</v>
+        <v>0.009423963861079899</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.221961855888367</v>
+        <v>30.38</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.222801208496094</v>
+        <v>30.36769676208496</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0008393526077270508</v>
+        <v>-0.01230323791503452</v>
       </c>
       <c r="E10" t="n">
-        <v>7.045127858873457e-07</v>
+        <v>0.0001513696631939428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.220980286598206</v>
+        <v>30.44</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.230313539505005</v>
+        <v>30.4892406463623</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.009333252906799316</v>
+        <v>0.04924064636230696</v>
       </c>
       <c r="E11" t="n">
-        <v>8.710961265023798e-05</v>
+        <v>0.002424641254177774</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.220325946807861</v>
+        <v>30.48</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.226594924926758</v>
+        <v>30.55953025817871</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.006268978118896484</v>
+        <v>0.07953025817870696</v>
       </c>
       <c r="E12" t="n">
-        <v>3.930008824681863e-05</v>
+        <v>0.006325061965971785</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.71982383728027</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02982383728027571</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0008894612701203633</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.79186820983887</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.04186820983886719</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001752946995111415</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.88606071472168</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.05393928527831804</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.002909446496335777</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.98209953308105</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.03209953308105185</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001030380024021542</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31.06827354431152</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.04827354431152742</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002330335080397001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>31.24064445495605</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1206444549560501</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01455508451164241</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C19" t="n">
+        <v>31.26740837097168</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.01259162902832145</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0001585491215868674</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.35800743103027</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.02199256896972202</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0004836730898879797</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.51957511901855</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.06042488098144361</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.003651166241621625</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.6463680267334</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.003631973266607247</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.319122980934971e-05</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32.06487655639648</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1848765563964889</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.03417934110502415</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C24" t="n">
+        <v>32.32515335083008</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.04515335083007699</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002038825091184014</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C25" t="n">
+        <v>32.30097579956055</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.149024200439456</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02220821231661915</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32.81966781616211</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.03033218383788494</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0009200413763752484</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32.90000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32.93307876586914</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.03307876586913494</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.001094204751425047</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>33.09999999999999</v>
+      </c>
+      <c r="C28" t="n">
+        <v>33.02695846557617</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.07304153442382244</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.005335065750986439</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>33.37866592407227</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.02133407592774006</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0004551427956905779</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>33.68339920043945</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.01660079956054972</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0002755865460495477</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="C31" t="n">
+        <v>34.14723587036133</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.04723587036133381</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.002231227448792734</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>34.55554580688477</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1555458068847599</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.02419449803943103</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>34.92716598510742</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.02716598510741619</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0007379907468563582</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>35.31203079223633</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.01203079223633097</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0001447399618337615</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35.76857376098633</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.06857376098632528</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.004702360695809668</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36.28483200073242</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.01516799926757528</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0002300682017811643</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>36.5604133605957</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.239586639404294</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.05740175778104322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>37.25659561157227</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.04340438842773153</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001883940934785395</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>38.14734268188477</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2473426818847599</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.06117840228194555</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38.32413864135742</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.1758613586425781</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.03092721746361349</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="C41" t="n">
+        <v>38.8291130065918</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.07088699340820881</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.005024965834455439</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>39.40000000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>39.42006301879883</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.02006301879882244</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0004025247233219027</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>40.01290512084961</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.1129051208496037</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01274756631406361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="C44" t="n">
+        <v>40.03276443481445</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.06723556518554119</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.004520621225819158</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="C45" t="n">
+        <v>40.51787948608398</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.08212051391600994</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.006743778805829583</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>40.90000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>40.90779495239258</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.007794952392572441</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6.076128280247082e-05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>41.20000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>41.16021347045898</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.03978652954102557</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.001582967932918901</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="C48" t="n">
+        <v>41.35569381713867</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.1443061828613281</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.02082427441200707</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>42.03530120849609</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2353012084960966</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.05536665871972352</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>42.12040710449219</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.07959289550781534</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.006335029015318011</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>-1.216890454292297</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.212080717086792</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.004809737205505371</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.313357254024595e-05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B51" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>42.80418014526367</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.104180145263669</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.01085350266715918</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.0004181861877441406</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.0004660068661905825</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>0.07505165100094047</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.4417849568441972</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>3.883390672854148e-05</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.008835699136883944</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_7.xlsx
+++ b/full/sliding_window_results_window_7.xlsx
@@ -468,13 +468,13 @@
         <v>29.75</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>30.40247058788219</v>
       </c>
       <c r="D2" t="n">
-        <v>-29.75</v>
+        <v>0.6524705878821884</v>
       </c>
       <c r="E2" t="n">
-        <v>885.0625</v>
+        <v>0.4257178680513285</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.84</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>29.84945777265597</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.84</v>
+        <v>0.009457772655970587</v>
       </c>
       <c r="E3" t="n">
-        <v>890.4256</v>
+        <v>8.944946361202493e-05</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.81</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>29.66142247796292</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.81</v>
+        <v>-0.1485775220370762</v>
       </c>
       <c r="E4" t="n">
-        <v>888.6360999999999</v>
+        <v>0.02207528005467786</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.92</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>29.5982817534586</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.92</v>
+        <v>-0.3217182465414048</v>
       </c>
       <c r="E5" t="n">
-        <v>895.2064000000001</v>
+        <v>0.1035026301576761</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.98</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>29.85312025586845</v>
       </c>
       <c r="D6" t="n">
-        <v>-29.98</v>
+        <v>-0.1268797441315463</v>
       </c>
       <c r="E6" t="n">
-        <v>898.8004000000001</v>
+        <v>0.01609846947088667</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.04</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.06600351530143</v>
       </c>
       <c r="D7" t="n">
-        <v>-30.04</v>
+        <v>0.02600351530143286</v>
       </c>
       <c r="E7" t="n">
-        <v>902.4015999999999</v>
+        <v>0.0006761828080318527</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.21</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30.34908901132387</v>
       </c>
       <c r="D8" t="n">
-        <v>-30.21</v>
+        <v>0.1390890113238719</v>
       </c>
       <c r="E8" t="n">
-        <v>912.6441000000001</v>
+        <v>0.01934575307105215</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.22</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>30.52594039433468</v>
       </c>
       <c r="D9" t="n">
-        <v>-30.22</v>
+        <v>0.3059403943346766</v>
       </c>
       <c r="E9" t="n">
-        <v>913.2483999999999</v>
+        <v>0.0935995248856574</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.38</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.35365911871458</v>
       </c>
       <c r="D10" t="n">
-        <v>-30.38</v>
+        <v>-0.02634088128542089</v>
       </c>
       <c r="E10" t="n">
-        <v>922.9444</v>
+        <v>0.0006938420268926366</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.44</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>30.43898411740251</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.44</v>
+        <v>-0.001015882597489082</v>
       </c>
       <c r="E11" t="n">
-        <v>926.5936</v>
+        <v>1.032017451881164e-06</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.48</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30.55094216973905</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.48</v>
+        <v>0.07094216973904466</v>
       </c>
       <c r="E12" t="n">
-        <v>929.0304</v>
+        <v>0.005032791447283424</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.69</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>30.68086014304607</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.69</v>
+        <v>-0.009139856953929382</v>
       </c>
       <c r="E13" t="n">
-        <v>941.8761000000001</v>
+        <v>8.353698513829128e-05</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.75</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>30.27902283158048</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.75</v>
+        <v>-0.4709771684195232</v>
       </c>
       <c r="E14" t="n">
-        <v>945.5625</v>
+        <v>0.2218194931724719</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.94</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>30.38232876759964</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.94</v>
+        <v>-0.557671232400363</v>
       </c>
       <c r="E15" t="n">
-        <v>957.2836000000001</v>
+        <v>0.3109972034469397</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.95</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>30.69458768077862</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.95</v>
+        <v>-0.2554123192213815</v>
       </c>
       <c r="E16" t="n">
-        <v>957.9024999999999</v>
+        <v>0.06523545281004489</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.02</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>31.06272285481336</v>
       </c>
       <c r="D17" t="n">
-        <v>-31.02</v>
+        <v>0.04272285481335913</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2404</v>
+        <v>0.001825242323403364</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.12</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>31.35281011065088</v>
       </c>
       <c r="D18" t="n">
-        <v>-31.12</v>
+        <v>0.2328101106508811</v>
       </c>
       <c r="E18" t="n">
-        <v>968.4544000000001</v>
+        <v>0.0542005476212755</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.28</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.33141430812179</v>
       </c>
       <c r="D19" t="n">
-        <v>-31.28</v>
+        <v>0.05141430812179237</v>
       </c>
       <c r="E19" t="n">
-        <v>978.4384000000001</v>
+        <v>0.002643431079642605</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.38</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>31.6087785071903</v>
       </c>
       <c r="D20" t="n">
-        <v>-31.38</v>
+        <v>0.2287785071902988</v>
       </c>
       <c r="E20" t="n">
-        <v>984.7044</v>
+        <v>0.0523396053522216</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.58</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>31.92626103420487</v>
       </c>
       <c r="D21" t="n">
-        <v>-31.58</v>
+        <v>0.3462610342048755</v>
       </c>
       <c r="E21" t="n">
-        <v>997.2963999999999</v>
+        <v>0.11989670380863</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.65</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.9100204118511</v>
       </c>
       <c r="D22" t="n">
-        <v>-31.65</v>
+        <v>0.2600204118511016</v>
       </c>
       <c r="E22" t="n">
-        <v>1001.7225</v>
+        <v>0.06761061457921649</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.88</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>31.59474956815411</v>
       </c>
       <c r="D23" t="n">
-        <v>-31.88</v>
+        <v>-0.2852504318458919</v>
       </c>
       <c r="E23" t="n">
-        <v>1016.3344</v>
+        <v>0.08136780886826785</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.28</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>32.11077502296926</v>
       </c>
       <c r="D24" t="n">
-        <v>-32.28</v>
+        <v>-0.1692249770307441</v>
       </c>
       <c r="E24" t="n">
-        <v>1041.9984</v>
+        <v>0.02863709285105588</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.45</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>32.1607344515993</v>
       </c>
       <c r="D25" t="n">
-        <v>-32.45</v>
+        <v>-0.2892655484007065</v>
       </c>
       <c r="E25" t="n">
-        <v>1053.0025</v>
+        <v>0.08367455749156148</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.85</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>33.26761652402123</v>
       </c>
       <c r="D26" t="n">
-        <v>-32.85</v>
+        <v>0.4176165240212271</v>
       </c>
       <c r="E26" t="n">
-        <v>1079.1225</v>
+        <v>0.1744035611355721</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.9</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>32.95359507319187</v>
       </c>
       <c r="D27" t="n">
-        <v>-32.9</v>
+        <v>0.05359507319187173</v>
       </c>
       <c r="E27" t="n">
-        <v>1082.41</v>
+        <v>0.002872431870442088</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.28701813607838</v>
       </c>
       <c r="D28" t="n">
-        <v>-33.1</v>
+        <v>0.1870181360783789</v>
       </c>
       <c r="E28" t="n">
-        <v>1095.61</v>
+        <v>0.03497578322223106</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.4</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>33.29908565264557</v>
       </c>
       <c r="D29" t="n">
-        <v>-33.4</v>
+        <v>-0.1009143473544256</v>
       </c>
       <c r="E29" t="n">
-        <v>1115.56</v>
+        <v>0.01018370550196967</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.7</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>33.93100440488091</v>
       </c>
       <c r="D30" t="n">
-        <v>-33.7</v>
+        <v>0.2310044048809061</v>
       </c>
       <c r="E30" t="n">
-        <v>1135.69</v>
+        <v>0.0533630350743816</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>34.69771747294202</v>
       </c>
       <c r="D31" t="n">
-        <v>-34.1</v>
+        <v>0.5977174729420227</v>
       </c>
       <c r="E31" t="n">
-        <v>1162.81</v>
+        <v>0.3572661774601977</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.4</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>34.72062645199188</v>
       </c>
       <c r="D32" t="n">
-        <v>-34.4</v>
+        <v>0.3206264519918847</v>
       </c>
       <c r="E32" t="n">
-        <v>1183.36</v>
+        <v>0.1028013217169043</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.9</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>35.21850464189565</v>
       </c>
       <c r="D33" t="n">
-        <v>-34.9</v>
+        <v>0.3185046418956503</v>
       </c>
       <c r="E33" t="n">
-        <v>1218.01</v>
+        <v>0.1014452069090764</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.3</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>35.05499915420738</v>
       </c>
       <c r="D34" t="n">
-        <v>-35.3</v>
+        <v>-0.2450008457926174</v>
       </c>
       <c r="E34" t="n">
-        <v>1246.09</v>
+        <v>0.06002541443909788</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.7</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>35.3473033739953</v>
       </c>
       <c r="D35" t="n">
-        <v>-35.7</v>
+        <v>-0.3526966260047004</v>
       </c>
       <c r="E35" t="n">
-        <v>1274.49</v>
+        <v>0.1243949099950995</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.3</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>35.98922756969985</v>
       </c>
       <c r="D36" t="n">
-        <v>-36.3</v>
+        <v>-0.3107724303001476</v>
       </c>
       <c r="E36" t="n">
-        <v>1317.69</v>
+        <v>0.09657950343466007</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.8</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>36.38170493970585</v>
       </c>
       <c r="D37" t="n">
-        <v>-36.8</v>
+        <v>-0.4182950602941489</v>
       </c>
       <c r="E37" t="n">
-        <v>1354.24</v>
+        <v>0.1749707574664856</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.3</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>37.41691575368267</v>
       </c>
       <c r="D38" t="n">
-        <v>-37.3</v>
+        <v>0.1169157536826759</v>
       </c>
       <c r="E38" t="n">
-        <v>1391.29</v>
+        <v>0.01366929345918815</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.9</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>37.95126721373015</v>
       </c>
       <c r="D39" t="n">
-        <v>-37.9</v>
+        <v>0.05126721373015641</v>
       </c>
       <c r="E39" t="n">
-        <v>1436.41</v>
+        <v>0.002628327203653538</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.5</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>38.5437647617419</v>
       </c>
       <c r="D40" t="n">
-        <v>-38.5</v>
+        <v>0.04376476174189747</v>
       </c>
       <c r="E40" t="n">
-        <v>1482.25</v>
+        <v>0.001915354370325053</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.9</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>39.41892405364155</v>
       </c>
       <c r="D41" t="n">
-        <v>-38.9</v>
+        <v>0.5189240536415483</v>
       </c>
       <c r="E41" t="n">
-        <v>1513.21</v>
+        <v>0.2692821734477764</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.4</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>40.13086809550075</v>
       </c>
       <c r="D42" t="n">
-        <v>-39.4</v>
+        <v>0.7308680955007532</v>
       </c>
       <c r="E42" t="n">
-        <v>1552.36</v>
+        <v>0.534168173020898</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.9</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>40.42224859150753</v>
       </c>
       <c r="D43" t="n">
-        <v>-39.9</v>
+        <v>0.5222485915075268</v>
       </c>
       <c r="E43" t="n">
-        <v>1592.01</v>
+        <v>0.2727435913315956</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>40.01027232520678</v>
       </c>
       <c r="D44" t="n">
-        <v>-40.1</v>
+        <v>-0.08972767479322385</v>
       </c>
       <c r="E44" t="n">
-        <v>1608.01</v>
+        <v>0.00805105562379854</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.6</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>41.15194085867312</v>
       </c>
       <c r="D45" t="n">
-        <v>-40.6</v>
+        <v>0.5519408586731203</v>
       </c>
       <c r="E45" t="n">
-        <v>1648.36</v>
+        <v>0.3046387114728213</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.9</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>41.37871835482554</v>
       </c>
       <c r="D46" t="n">
-        <v>-40.9</v>
+        <v>0.4787183548255456</v>
       </c>
       <c r="E46" t="n">
-        <v>1672.81</v>
+        <v>0.229171263246877</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.2</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>41.16526965467785</v>
       </c>
       <c r="D47" t="n">
-        <v>-41.2</v>
+        <v>-0.0347303453221528</v>
       </c>
       <c r="E47" t="n">
-        <v>1697.44</v>
+        <v>0.001206196886195981</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.5</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>40.90932046603844</v>
       </c>
       <c r="D48" t="n">
-        <v>-41.5</v>
+        <v>-0.5906795339615556</v>
       </c>
       <c r="E48" t="n">
-        <v>1722.25</v>
+        <v>0.3489023118410405</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.8</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>41.283508081798</v>
       </c>
       <c r="D49" t="n">
-        <v>-41.8</v>
+        <v>-0.516491918202</v>
       </c>
       <c r="E49" t="n">
-        <v>1747.24</v>
+        <v>0.2667639015679815</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.2</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>41.74291447674603</v>
       </c>
       <c r="D50" t="n">
-        <v>-42.2</v>
+        <v>-0.4570855232539728</v>
       </c>
       <c r="E50" t="n">
-        <v>1780.84</v>
+        <v>0.2089271755683581</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.7</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>42.06826020706399</v>
       </c>
       <c r="D51" t="n">
-        <v>-42.7</v>
+        <v>-0.6317397929360098</v>
       </c>
       <c r="E51" t="n">
-        <v>1823.29</v>
+        <v>0.3990951659788325</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1715.39</v>
+        <v>1.097033157294227</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>59704.6625</v>
+        <v>5.93160861708988</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>1194.09325</v>
+        <v>0.1186321723417976</v>
       </c>
     </row>
   </sheetData>
